--- a/stage2_doc/niduc.xlsx
+++ b/stage2_doc/niduc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zumma\Documents\PWr\rok2\NIDU\projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zumma\Documents\PWr\rok2\NIDU\projekt\stage2_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B0756F-9F9A-49C7-BEA5-67B62DA625B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77234C3-15AE-489F-A333-67405D4A5322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{E217894E-9F48-4F86-85FA-9CDE5D3F588A}"/>
   </bookViews>
@@ -7321,7 +7321,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>BER [%]</a:t>
+                  <a:t>E [%]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8702,7 +8702,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>BER [%]</a:t>
+                  <a:t>E [%]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -17985,8 +17985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91260CF9-477D-4995-A019-7F685745E0A9}">
   <dimension ref="A1:AB202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K97" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+    <sheetView tabSelected="1" topLeftCell="K101" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/stage2_doc/niduc.xlsx
+++ b/stage2_doc/niduc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zumma\Documents\PWr\rok2\NIDU\projekt\stage2_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krzys\Desktop\Nowy folder (2)\fec-nidsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77234C3-15AE-489F-A333-67405D4A5322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A698AD1-C904-4B5E-BF4A-0638314C0FA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{E217894E-9F48-4F86-85FA-9CDE5D3F588A}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E217894E-9F48-4F86-85FA-9CDE5D3F588A}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="25" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4714,7 +4712,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
-          <c:min val="3.0000000000000006E-2"/>
+          <c:min val="2.5000000000000005E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6094,7 +6092,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
-          <c:min val="3.0000000000000006E-2"/>
+          <c:min val="2.5000000000000005E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6604,40 +6602,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.35483900000000101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99954567716141896</c:v>
+                  <c:v>0.35472292303848202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99491613293353498</c:v>
+                  <c:v>0.35312364067966101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98351722688656196</c:v>
+                  <c:v>0.34891913293353299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.958089064967521</c:v>
+                  <c:v>0.34027494352823401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92249336331833998</c:v>
+                  <c:v>0.327579709145425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87974645127436202</c:v>
+                  <c:v>0.31185211994002898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83999819190405001</c:v>
+                  <c:v>0.29808322538730597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79734223688156103</c:v>
+                  <c:v>0.282982741129435</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.757139591204399</c:v>
+                  <c:v>0.26901070314842501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72368816591703999</c:v>
+                  <c:v>0.25646856171913901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69681522088955505</c:v>
+                  <c:v>0.246628295352324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6719,40 +6717,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.99928160919540199</c:v>
+                  <c:v>0.51579368515740798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99049225387306405</c:v>
+                  <c:v>0.51142489505246902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96635432283858302</c:v>
+                  <c:v>0.49871032633683099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.937921664167917</c:v>
+                  <c:v>0.483513114442779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89837581209395201</c:v>
+                  <c:v>0.46409542328835701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.860953898050974</c:v>
+                  <c:v>0.44471955222388498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82718640679660005</c:v>
+                  <c:v>0.426341625687155</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80012806096951405</c:v>
+                  <c:v>0.41312244077960902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77083020989505202</c:v>
+                  <c:v>0.397768857571214</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74338455772113698</c:v>
+                  <c:v>0.383679161919039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.71764117941029404</c:v>
+                  <c:v>0.37060508045976998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69415604697651101</c:v>
+                  <c:v>0.35854012043978101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6834,40 +6832,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.99538793853072305</c:v>
+                  <c:v>0.67432232583709295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97180217791102297</c:v>
+                  <c:v>0.658417608195909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93604861069464196</c:v>
+                  <c:v>0.63398939980010005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90281052673662399</c:v>
+                  <c:v>0.61141684607696001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86708549625186704</c:v>
+                  <c:v>0.58744017641179602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83433996751624895</c:v>
+                  <c:v>0.565378660169916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80694654672663702</c:v>
+                  <c:v>0.54630425387306503</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.78356056121939299</c:v>
+                  <c:v>0.53037348475761903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75955593153423595</c:v>
+                  <c:v>0.514009094952524</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.734011571714138</c:v>
+                  <c:v>0.49652111044477698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70855051274362901</c:v>
+                  <c:v>0.48029214242878698</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68870085457271102</c:v>
+                  <c:v>0.46627176261869102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6949,40 +6947,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.98823662468765305</c:v>
+                  <c:v>0.82251129635183096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95789043503249105</c:v>
+                  <c:v>0.79186053273363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.922279531484263</c:v>
+                  <c:v>0.76199811294352005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89228648275864297</c:v>
+                  <c:v>0.73922871364318399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86036011019490999</c:v>
+                  <c:v>0.715469646176911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83151295952024795</c:v>
+                  <c:v>0.69418839480259997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80424301446901503</c:v>
+                  <c:v>0.67323600649675097</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.78138047926036003</c:v>
+                  <c:v>0.65544167116441898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75735976461768695</c:v>
+                  <c:v>0.63454397251374495</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73320456721639904</c:v>
+                  <c:v>0.614982791604198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70839964117941601</c:v>
+                  <c:v>0.59415294952523701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68721986406796598</c:v>
+                  <c:v>0.576360250874564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7064,40 +7062,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.19354800000000599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.193546388305853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99973346676661701</c:v>
+                  <c:v>0.19351576161919601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99809261769115298</c:v>
+                  <c:v>0.19326430134933101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99257871264367303</c:v>
+                  <c:v>0.192218146426791</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97909377711143197</c:v>
+                  <c:v>0.18956320689655401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.952681993003484</c:v>
+                  <c:v>0.18500592903548299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92382974512742799</c:v>
+                  <c:v>0.178839670164917</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88105945977011402</c:v>
+                  <c:v>0.17023429885057401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83120939930035398</c:v>
+                  <c:v>0.160518197401299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78080127436282198</c:v>
+                  <c:v>0.15111962168915599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.74016324737631101</c:v>
+                  <c:v>0.143265426786607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7125,7 +7123,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
-          <c:min val="3.0000000000000006E-2"/>
+          <c:min val="2.5000000000000005E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7267,8 +7265,6 @@
         <c:axId val="81348240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7321,7 +7317,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>E [%]</a:t>
+                  <a:t>BER [%]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7403,18 +7399,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14045727358210483"/>
-          <c:y val="0.46479934591322281"/>
-          <c:w val="0.28527373456617"/>
-          <c:h val="0.28258054206034827"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7636,40 +7622,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.99999732933533203</c:v>
+                  <c:v>0.51372500000001597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99619996251873999</c:v>
+                  <c:v>0.51171720289855904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95180957371314001</c:v>
+                  <c:v>0.48891947276361702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90375499350324595</c:v>
+                  <c:v>0.46412656771614202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87513381759120601</c:v>
+                  <c:v>0.44949506596701699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.84993839830084605</c:v>
+                  <c:v>0.43652369915042499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82469642728636094</c:v>
+                  <c:v>0.42362427936031899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80000495702149099</c:v>
+                  <c:v>0.41119575812094</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77507544127936001</c:v>
+                  <c:v>0.39812093603198401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74983997151424198</c:v>
+                  <c:v>0.385043168415793</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72456862768615604</c:v>
+                  <c:v>0.37221996751624098</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70039102098950501</c:v>
+                  <c:v>0.35937227236381902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7751,40 +7737,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.99998705697151402</c:v>
+                  <c:v>0.54508526086959197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98607928985507198</c:v>
+                  <c:v>0.53754513193403297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93409480609695095</c:v>
+                  <c:v>0.50925967766116997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90061730784607696</c:v>
+                  <c:v>0.49085869515242397</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87479641829085597</c:v>
+                  <c:v>0.47682511894052898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.849600372313845</c:v>
+                  <c:v>0.46320585757121502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82478256421789498</c:v>
+                  <c:v>0.449717701149426</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80027395602199303</c:v>
+                  <c:v>0.43619228435782098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77526812443778403</c:v>
+                  <c:v>0.42237548175911999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74973880509745205</c:v>
+                  <c:v>0.40888340379810101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72482606396801497</c:v>
+                  <c:v>0.395180433283359</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70011828385806896</c:v>
+                  <c:v>0.381552560719641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7866,40 +7852,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5.0979999999998998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>5.0979999999998998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>5.0979999999998998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>5.0979999999998998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>5.0979999999998998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99998462318840597</c:v>
+                  <c:v>5.0978040979509198E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99836619440279994</c:v>
+                  <c:v>5.0897520739629297E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98059043778111898</c:v>
+                  <c:v>4.9959016491753702E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90770768915542799</c:v>
+                  <c:v>4.63427421289355E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.80630838830585105</c:v>
+                  <c:v>4.1172537731134502E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.73643178560719502</c:v>
+                  <c:v>3.7618459770114999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70031522538730595</c:v>
+                  <c:v>3.5726638680659603E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7981,40 +7967,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.99576066466766</c:v>
+                  <c:v>0.73012778460768502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95487253323338495</c:v>
+                  <c:v>0.70021753873063397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92469671064467496</c:v>
+                  <c:v>0.678271653673161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89991154272863505</c:v>
+                  <c:v>0.65996022688655998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87479391754123104</c:v>
+                  <c:v>0.64159175762119003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.84983442678660304</c:v>
+                  <c:v>0.62320643528235797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82476515242378501</c:v>
+                  <c:v>0.60482524937531301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79999010894552802</c:v>
+                  <c:v>0.58653106296851498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77503681459270002</c:v>
+                  <c:v>0.56824353973013697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74951668615692102</c:v>
+                  <c:v>0.54981526636681499</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72485895452274396</c:v>
+                  <c:v>0.53152286306846597</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69992596251873995</c:v>
+                  <c:v>0.51335135332333803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8096,40 +8082,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.99272226486756099</c:v>
+                  <c:v>0.74365584107946203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95222127936032397</c:v>
+                  <c:v>0.71337152173913299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92479991154421903</c:v>
+                  <c:v>0.69259780159920503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90002434532733799</c:v>
+                  <c:v>0.67414721689155299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87490234632683295</c:v>
+                  <c:v>0.65531015792103697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.84986721589204794</c:v>
+                  <c:v>0.63651703448275898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82472742678661004</c:v>
+                  <c:v>0.617725647676162</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80005678360819599</c:v>
+                  <c:v>0.59922000049974899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77506431784108198</c:v>
+                  <c:v>0.58046741279360303</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74981148275862197</c:v>
+                  <c:v>0.56149474962518897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72479388905547104</c:v>
+                  <c:v>0.54281074562718501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70026086156921397</c:v>
+                  <c:v>0.52429393703148397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8211,40 +8197,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.97156716091953499</c:v>
+                  <c:v>0.91062626436781602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94639503648176304</c:v>
+                  <c:v>0.88691518640679201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92130989105447303</c:v>
+                  <c:v>0.86349787956021495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.896856798600702</c:v>
+                  <c:v>0.84060048175911495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87204222538730203</c:v>
+                  <c:v>0.81732662918540899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.84718668715642198</c:v>
+                  <c:v>0.79392614542729101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82224016591703897</c:v>
+                  <c:v>0.77045243628186499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79766518090954697</c:v>
+                  <c:v>0.74768108345827</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77277282858570695</c:v>
+                  <c:v>0.72413225487256305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74786750974513105</c:v>
+                  <c:v>0.70100459070464805</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72290950174912405</c:v>
+                  <c:v>0.677614138430781</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69829812993503204</c:v>
+                  <c:v>0.65473593853073098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8328,40 +8314,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.97126506896549503</c:v>
+                  <c:v>0.94076029385306803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.946275067466259</c:v>
+                  <c:v>0.91656856871563896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92135486006996203</c:v>
+                  <c:v>0.892515114942522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89693190604697104</c:v>
+                  <c:v>0.86878402998501103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87199895402298799</c:v>
+                  <c:v>0.84462732483758596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.84703074762618502</c:v>
+                  <c:v>0.820467205397303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82210649975011596</c:v>
+                  <c:v>0.79641296451774701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79771247976011395</c:v>
+                  <c:v>0.772608779110451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.772730416291871</c:v>
+                  <c:v>0.74850868715642105</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74779959020490805</c:v>
+                  <c:v>0.724393312843577</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72292066616692496</c:v>
+                  <c:v>0.70031631384307902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69841558320840302</c:v>
+                  <c:v>0.67652682558720201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8445,40 +8431,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.113724999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.113724999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.113724999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.113724999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99980699400299899</c:v>
+                  <c:v>0.113694434282854</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99048753223388297</c:v>
+                  <c:v>0.112633431784105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93689533333333497</c:v>
+                  <c:v>0.10665531934033</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.847734752123949</c:v>
+                  <c:v>9.6566609195402706E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78485413943028604</c:v>
+                  <c:v>8.9362965017491205E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74953558370814499</c:v>
+                  <c:v>8.5312854072963407E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72452393803098303</c:v>
+                  <c:v>8.2435840579709901E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70004653573213305</c:v>
+                  <c:v>7.9648990504747302E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8506,7 +8492,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
-          <c:min val="3.0000000000000006E-2"/>
+          <c:min val="2.5000000000000005E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8648,8 +8634,6 @@
         <c:axId val="81348240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8702,7 +8686,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>E [%]</a:t>
+                  <a:t>BER [%]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8784,18 +8768,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12424625387823718"/>
-          <c:y val="0.36740171721769249"/>
-          <c:w val="0.30031711025043051"/>
-          <c:h val="0.45250236410706174"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -13450,13 +13424,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>418303</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>143790</xdr:rowOff>
+      <xdr:rowOff>141885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>514897</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>89092</xdr:rowOff>
+      <xdr:rowOff>92902</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13486,15 +13460,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>321930</xdr:colOff>
+      <xdr:colOff>325740</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>169588</xdr:rowOff>
+      <xdr:rowOff>173398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>560055</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>98129</xdr:rowOff>
+      <xdr:rowOff>94319</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13524,15 +13498,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>444927</xdr:colOff>
+      <xdr:colOff>437306</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>93965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>574378</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>46207</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13564,11 +13538,11 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>422349</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>28855</xdr:rowOff>
+      <xdr:rowOff>26950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>557514</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>148782</xdr:rowOff>
     </xdr:to>
@@ -15526,7 +15500,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7BB3CCD-E7A4-40E6-A0EA-DEE628E77B67}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7BB3CCD-E7A4-40E6-A0EA-DEE628E77B67}" name="Tabela przestawna1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" showAll="0">
@@ -16456,16 +16430,16 @@
       <selection activeCell="B3" sqref="B3:H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -16488,7 +16462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>3</v>
       </c>
@@ -16511,7 +16485,7 @@
         <v>1.0657171414292873E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -16534,7 +16508,7 @@
         <v>6.2618690654672668E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -16557,7 +16531,7 @@
         <v>0.19713893053473219</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -16580,7 +16554,7 @@
         <v>0.27345077461269379</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -16603,7 +16577,7 @@
         <v>0.32741129435282335</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -16626,7 +16600,7 @@
         <v>1.6691801099450357E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>4</v>
       </c>
@@ -16649,7 +16623,7 @@
         <v>0.10424790354822555</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -16672,7 +16646,7 @@
         <v>0.22891289655172506</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>4</v>
       </c>
@@ -16695,7 +16669,7 @@
         <v>0.28194987756121909</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>4</v>
       </c>
@@ -16718,7 +16692,7 @@
         <v>0.32397442928535652</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>5</v>
       </c>
@@ -16741,7 +16715,7 @@
         <v>2.8066716141928967E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>5</v>
       </c>
@@ -16764,7 +16738,7 @@
         <v>0.1184157791104446</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>5</v>
       </c>
@@ -16787,7 +16761,7 @@
         <v>0.21841577061469405</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>5</v>
       </c>
@@ -16810,7 +16784,7 @@
         <v>0.26744895502248789</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>5</v>
       </c>
@@ -16833,7 +16807,7 @@
         <v>0.31203627486256819</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>6</v>
       </c>
@@ -16856,7 +16830,7 @@
         <v>3.4644044477761024E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>6</v>
       </c>
@@ -16879,7 +16853,7 @@
         <v>0.11254370364817537</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>6</v>
       </c>
@@ -16902,7 +16876,7 @@
         <v>0.20940056071964042</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>6</v>
       </c>
@@ -16925,7 +16899,7 @@
         <v>0.25819111494253066</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>6</v>
       </c>
@@ -16948,7 +16922,7 @@
         <v>0.30617499000499621</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>7</v>
       </c>
@@ -16971,7 +16945,7 @@
         <v>3.6989843078460372E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>7</v>
       </c>
@@ -16994,7 +16968,7 @@
         <v>0.10627060769614992</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>7</v>
       </c>
@@ -17017,7 +16991,7 @@
         <v>0.20466141979009969</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
@@ -17040,7 +17014,7 @@
         <v>0.25432199300349506</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>7</v>
       </c>
@@ -17063,7 +17037,7 @@
         <v>0.30299975312344068</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>8</v>
       </c>
@@ -17086,7 +17060,7 @@
         <v>3.3877176911544377E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>8</v>
       </c>
@@ -17109,7 +17083,7 @@
         <v>0.1030871144427799</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>8</v>
       </c>
@@ -17132,7 +17106,7 @@
         <v>0.20234193653173041</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>8</v>
       </c>
@@ -17155,7 +17129,7 @@
         <v>0.25208893103448643</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>8</v>
       </c>
@@ -17178,7 +17152,7 @@
         <v>0.30159271864067994</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>0.03</v>
       </c>
@@ -17201,7 +17175,7 @@
         <v>3.3877176911544377E-2</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>0.1</v>
       </c>
@@ -17224,7 +17198,7 @@
         <v>0.1030871144427799</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>0.2</v>
       </c>
@@ -17247,7 +17221,7 @@
         <v>0.20234193653173041</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>0.25</v>
       </c>
@@ -17270,7 +17244,7 @@
         <v>0.25208893103448643</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>0.3</v>
       </c>
@@ -17293,7 +17267,7 @@
         <v>0.30159271864067994</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>0.03</v>
       </c>
@@ -17316,7 +17290,7 @@
         <v>3.3877176911544377E-2</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>0.1</v>
       </c>
@@ -17339,7 +17313,7 @@
         <v>0.1030871144427799</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>0.2</v>
       </c>
@@ -17362,7 +17336,7 @@
         <v>0.20234193653173041</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>0.25</v>
       </c>
@@ -17385,7 +17359,7 @@
         <v>0.25208893103448643</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>0.3</v>
       </c>
@@ -17408,7 +17382,7 @@
         <v>0.30159271864067994</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>0.03</v>
       </c>
@@ -17437,7 +17411,7 @@
         <v>0.96612282308845565</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>0.1</v>
       </c>
@@ -17466,7 +17440,7 @@
         <v>0.89691288555722015</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>0.2</v>
       </c>
@@ -17495,7 +17469,7 @@
         <v>0.79765806346826962</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>0.25</v>
       </c>
@@ -17524,7 +17498,7 @@
         <v>0.74791106896551351</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>0.3</v>
       </c>
@@ -17553,35 +17527,35 @@
         <v>0.69840728135932006</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
       <c r="D55" s="7"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D56" s="7"/>
       <c r="F56" s="1"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F57" s="2"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F58" s="1"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F59" s="2"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F60" s="1"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F61" s="2"/>
       <c r="G61" s="8"/>
     </row>
@@ -17602,11 +17576,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="27" width="12" bestFit="1" customWidth="1"/>
@@ -17616,147 +17590,147 @@
     <col min="31" max="69" width="12" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="11" bestFit="1" customWidth="1"/>
     <col min="71" max="145" width="12" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="14" bestFit="1" customWidth="1"/>
     <col min="148" max="157" width="12" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="11" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="160" max="177" width="12" bestFit="1" customWidth="1"/>
     <col min="178" max="178" width="11" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="180" max="201" width="12" bestFit="1" customWidth="1"/>
     <col min="202" max="202" width="11" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="204" max="251" width="12" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="11" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="254" max="285" width="12" bestFit="1" customWidth="1"/>
     <col min="286" max="286" width="11" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="288" max="289" width="12" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="292" max="292" width="14" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="309" max="310" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="312" max="313" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="330" max="331" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="342" max="342" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="345" max="346" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="354" max="355" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="357" max="358" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="364" max="364" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="366" max="367" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="368" max="368" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="369" max="370" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="372" max="373" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="375" max="376" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="377" max="377" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="378" max="378" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="381" max="382" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="384" max="385" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="387" max="388" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="389" max="389" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="390" max="391" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="394" max="394" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="396" max="397" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="399" max="400" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="401" max="401" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="402" max="403" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="404" max="404" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="405" max="406" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="407" max="407" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="408" max="409" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="410" max="410" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="411" max="412" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="413" max="413" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="414" max="415" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="416" max="416" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="417" max="418" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="419" max="419" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="420" max="421" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="422" max="422" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="423" max="424" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="425" max="425" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="426" max="427" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="428" max="428" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="429" max="430" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="431" max="431" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="432" max="433" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="434" max="434" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="435" max="436" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="309" max="310" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="312" max="313" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="330" max="331" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="345" max="346" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="348" max="348" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="354" max="355" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="357" max="358" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="366" max="367" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="368" max="368" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="369" max="370" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="372" max="373" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="375" max="376" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="381" max="382" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="384" max="385" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="386" max="386" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="387" max="388" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="389" max="389" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="390" max="391" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="392" max="392" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="396" max="397" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="399" max="400" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="401" max="401" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="402" max="403" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="404" max="404" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="405" max="406" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="407" max="407" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="408" max="409" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="410" max="410" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="411" max="412" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="413" max="413" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="414" max="415" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="416" max="416" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="417" max="418" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="420" max="421" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="422" max="422" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="423" max="424" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="425" max="425" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="426" max="427" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="428" max="428" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="429" max="430" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="431" max="431" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="432" max="433" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="434" max="434" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="435" max="436" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="437" max="437" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -17764,7 +17738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
@@ -17772,7 +17746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
@@ -17780,7 +17754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
@@ -17794,7 +17768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -17808,7 +17782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>0.05</v>
       </c>
@@ -17822,7 +17796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -17836,7 +17810,7 @@
         <v>0.99973346676661701</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>0.1</v>
       </c>
@@ -17850,7 +17824,7 @@
         <v>0.99809261769115298</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>0.125</v>
       </c>
@@ -17864,7 +17838,7 @@
         <v>0.99257871264367303</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>0.15</v>
       </c>
@@ -17878,7 +17852,7 @@
         <v>0.97909377711143197</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>0.17499999999999999</v>
       </c>
@@ -17892,7 +17866,7 @@
         <v>0.952681993003484</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>0.2</v>
       </c>
@@ -17906,7 +17880,7 @@
         <v>0.92382974512742799</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>0.22500000000000001</v>
       </c>
@@ -17920,7 +17894,7 @@
         <v>0.88105945977011402</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>0.25</v>
       </c>
@@ -17934,7 +17908,7 @@
         <v>0.83120939930035398</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>0.27500000000000002</v>
       </c>
@@ -17948,7 +17922,7 @@
         <v>0.78080127436282198</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>0.3</v>
       </c>
@@ -17962,7 +17936,7 @@
         <v>0.74016324737631101</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>16</v>
       </c>
@@ -17985,23 +17959,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91260CF9-477D-4995-A019-7F685745E0A9}">
   <dimension ref="A1:AB202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K101" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AC93" sqref="AC93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="10"/>
-    <col min="8" max="8" width="12.140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="10"/>
-    <col min="15" max="15" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="10"/>
+    <col min="8" max="8" width="12.109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="10"/>
+    <col min="15" max="15" width="40.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18028,7 +18002,7 @@
       </c>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -18056,7 +18030,7 @@
       </c>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -18123,7 +18097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -18153,47 +18127,47 @@
       <c r="O4" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0.99928160919540199</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0.99538793853072305</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0.98823662468765305</v>
-      </c>
-      <c r="T4" s="7">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0.99999732933533203</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0.99998705697151402</v>
-      </c>
-      <c r="W4" s="7">
-        <v>1</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0.99576066466766</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0.99272226486756099</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>0.97156716091953499</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>0.97126506896549503</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P4" s="4">
+        <v>0.35483900000000101</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.51579368515740798</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.67432232583709295</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.82251129635183096</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0.19354800000000599</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0.51372500000001597</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0.54508526086959197</v>
+      </c>
+      <c r="W4" s="4">
+        <v>5.0979999999998998E-2</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0.73012778460768502</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0.74365584107946203</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0.91062626436781602</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0.94076029385306803</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0.113724999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -18223,47 +18197,47 @@
       <c r="O5" s="8">
         <v>0.05</v>
       </c>
-      <c r="P5" s="8">
-        <v>0.99954567716141896</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0.99049225387306405</v>
-      </c>
-      <c r="R5" s="8">
-        <v>0.97180217791102297</v>
-      </c>
-      <c r="S5" s="8">
-        <v>0.95789043503249105</v>
-      </c>
-      <c r="T5" s="8">
-        <v>1</v>
-      </c>
-      <c r="U5" s="8">
-        <v>0.99619996251873999</v>
-      </c>
-      <c r="V5" s="8">
-        <v>0.98607928985507198</v>
-      </c>
-      <c r="W5" s="8">
-        <v>1</v>
-      </c>
-      <c r="X5" s="8">
-        <v>0.95487253323338495</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>0.95222127936032397</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>0.94639503648176304</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>0.946275067466259</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P5" s="4">
+        <v>0.35472292303848202</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.51142489505246902</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.658417608195909</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.79186053273363</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0.193546388305853</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0.51171720289855904</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0.53754513193403297</v>
+      </c>
+      <c r="W5" s="4">
+        <v>5.0979999999998998E-2</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0.70021753873063397</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0.71337152173913299</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0.88691518640679201</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0.91656856871563896</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0.113724999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18293,47 +18267,47 @@
       <c r="O6" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="P6" s="7">
-        <v>0.99491613293353498</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0.96635432283858302</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0.93604861069464196</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0.922279531484263</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0.99973346676661701</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0.95180957371314001</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0.93409480609695095</v>
-      </c>
-      <c r="W6" s="7">
-        <v>1</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0.92469671064467496</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>0.92479991154421903</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>0.92130989105447303</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>0.92135486006996203</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P6" s="4">
+        <v>0.35312364067966101</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.49871032633683099</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0.63398939980010005</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0.76199811294352005</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0.19351576161919601</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0.48891947276361702</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0.50925967766116997</v>
+      </c>
+      <c r="W6" s="4">
+        <v>5.0979999999998998E-2</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0.678271653673161</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0.69259780159920503</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0.86349787956021495</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0.892515114942522</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0.113724999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -18363,47 +18337,47 @@
       <c r="O7" s="8">
         <v>0.1</v>
       </c>
-      <c r="P7" s="8">
-        <v>0.98351722688656196</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0.937921664167917</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0.90281052673662399</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0.89228648275864297</v>
-      </c>
-      <c r="T7" s="8">
-        <v>0.99809261769115298</v>
-      </c>
-      <c r="U7" s="8">
-        <v>0.90375499350324595</v>
-      </c>
-      <c r="V7" s="8">
-        <v>0.90061730784607696</v>
-      </c>
-      <c r="W7" s="8">
-        <v>1</v>
-      </c>
-      <c r="X7" s="8">
-        <v>0.89991154272863505</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>0.90002434532733799</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>0.896856798600702</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>0.89693190604697104</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P7" s="4">
+        <v>0.34891913293353299</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.483513114442779</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0.61141684607696001</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0.73922871364318399</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0.19326430134933101</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0.46412656771614202</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0.49085869515242397</v>
+      </c>
+      <c r="W7" s="4">
+        <v>5.0979999999998998E-2</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0.65996022688655998</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0.67414721689155299</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0.84060048175911495</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0.86878402998501103</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0.113724999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -18433,47 +18407,47 @@
       <c r="O8" s="7">
         <v>0.125</v>
       </c>
-      <c r="P8" s="7">
-        <v>0.958089064967521</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0.89837581209395201</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0.86708549625186704</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0.86036011019490999</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0.99257871264367303</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0.87513381759120601</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0.87479641829085597</v>
-      </c>
-      <c r="W8" s="7">
-        <v>1</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0.87479391754123104</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>0.87490234632683295</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>0.87204222538730203</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>0.87199895402298799</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>0.99980699400299899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P8" s="4">
+        <v>0.34027494352823401</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.46409542328835701</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0.58744017641179602</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0.715469646176911</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0.192218146426791</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0.44949506596701699</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0.47682511894052898</v>
+      </c>
+      <c r="W8" s="4">
+        <v>5.0979999999998998E-2</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0.64159175762119003</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0.65531015792103697</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0.81732662918540899</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0.84462732483758596</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0.113694434282854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -18503,47 +18477,47 @@
       <c r="O9" s="8">
         <v>0.15</v>
       </c>
-      <c r="P9" s="8">
-        <v>0.92249336331833998</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>0.860953898050974</v>
-      </c>
-      <c r="R9" s="8">
-        <v>0.83433996751624895</v>
-      </c>
-      <c r="S9" s="8">
-        <v>0.83151295952024795</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0.97909377711143197</v>
-      </c>
-      <c r="U9" s="8">
-        <v>0.84993839830084605</v>
-      </c>
-      <c r="V9" s="8">
-        <v>0.849600372313845</v>
-      </c>
-      <c r="W9" s="8">
-        <v>0.99998462318840597</v>
-      </c>
-      <c r="X9" s="8">
-        <v>0.84983442678660304</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>0.84986721589204794</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>0.84718668715642198</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>0.84703074762618502</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>0.99048753223388297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P9" s="4">
+        <v>0.327579709145425</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.44471955222388498</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0.565378660169916</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0.69418839480259997</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0.18956320689655401</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0.43652369915042499</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0.46320585757121502</v>
+      </c>
+      <c r="W9" s="4">
+        <v>5.0978040979509198E-2</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0.62320643528235797</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0.63651703448275898</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0.79392614542729101</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0.820467205397303</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0.112633431784105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -18573,47 +18547,47 @@
       <c r="O10" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="P10" s="7">
-        <v>0.87974645127436202</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0.82718640679660005</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0.80694654672663702</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0.80424301446901503</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0.952681993003484</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0.82469642728636094</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0.82478256421789498</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0.99836619440279994</v>
-      </c>
-      <c r="X10" s="7">
-        <v>0.82476515242378501</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0.82472742678661004</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>0.82224016591703897</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>0.82210649975011596</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>0.93689533333333497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P10" s="4">
+        <v>0.31185211994002898</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.426341625687155</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.54630425387306503</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0.67323600649675097</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0.18500592903548299</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0.42362427936031899</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0.449717701149426</v>
+      </c>
+      <c r="W10" s="4">
+        <v>5.0897520739629297E-2</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0.60482524937531301</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0.617725647676162</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0.77045243628186499</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0.79641296451774701</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0.10665531934033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -18643,47 +18617,47 @@
       <c r="O11" s="8">
         <v>0.2</v>
       </c>
-      <c r="P11" s="8">
-        <v>0.83999819190405001</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>0.80012806096951405</v>
-      </c>
-      <c r="R11" s="8">
-        <v>0.78356056121939299</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0.78138047926036003</v>
-      </c>
-      <c r="T11" s="8">
-        <v>0.92382974512742799</v>
-      </c>
-      <c r="U11" s="8">
-        <v>0.80000495702149099</v>
-      </c>
-      <c r="V11" s="8">
-        <v>0.80027395602199303</v>
-      </c>
-      <c r="W11" s="8">
-        <v>0.98059043778111898</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0.79999010894552802</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>0.80005678360819599</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>0.79766518090954697</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0.79771247976011395</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>0.847734752123949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P11" s="4">
+        <v>0.29808322538730597</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.41312244077960902</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.53037348475761903</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0.65544167116441898</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0.178839670164917</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0.41119575812094</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.43619228435782098</v>
+      </c>
+      <c r="W11" s="4">
+        <v>4.9959016491753702E-2</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0.58653106296851498</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0.59922000049974899</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0.74768108345827</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0.772608779110451</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>9.6566609195402706E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -18713,47 +18687,47 @@
       <c r="O12" s="7">
         <v>0.22500000000000001</v>
       </c>
-      <c r="P12" s="7">
-        <v>0.79734223688156103</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0.77083020989505202</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0.75955593153423595</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0.75735976461768695</v>
-      </c>
-      <c r="T12" s="7">
-        <v>0.88105945977011402</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0.77507544127936001</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0.77526812443778403</v>
-      </c>
-      <c r="W12" s="7">
-        <v>0.90770768915542799</v>
-      </c>
-      <c r="X12" s="7">
-        <v>0.77503681459270002</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>0.77506431784108198</v>
-      </c>
-      <c r="Z12" s="7">
-        <v>0.77277282858570695</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>0.772730416291871</v>
-      </c>
-      <c r="AB12" s="7">
-        <v>0.78485413943028604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P12" s="4">
+        <v>0.282982741129435</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.397768857571214</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0.514009094952524</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0.63454397251374495</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0.17023429885057401</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0.39812093603198401</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0.42237548175911999</v>
+      </c>
+      <c r="W12" s="4">
+        <v>4.63427421289355E-2</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0.56824353973013697</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0.58046741279360303</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0.72413225487256305</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0.74850868715642105</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>8.9362965017491205E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -18783,47 +18757,47 @@
       <c r="O13" s="8">
         <v>0.25</v>
       </c>
-      <c r="P13" s="8">
-        <v>0.757139591204399</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0.74338455772113698</v>
-      </c>
-      <c r="R13" s="8">
-        <v>0.734011571714138</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0.73320456721639904</v>
-      </c>
-      <c r="T13" s="8">
-        <v>0.83120939930035398</v>
-      </c>
-      <c r="U13" s="8">
-        <v>0.74983997151424198</v>
-      </c>
-      <c r="V13" s="8">
-        <v>0.74973880509745205</v>
-      </c>
-      <c r="W13" s="8">
-        <v>0.80630838830585105</v>
-      </c>
-      <c r="X13" s="8">
-        <v>0.74951668615692102</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>0.74981148275862197</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>0.74786750974513105</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>0.74779959020490805</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>0.74953558370814499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P13" s="4">
+        <v>0.26901070314842501</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.383679161919039</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.49652111044477698</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0.614982791604198</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0.160518197401299</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0.385043168415793</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0.40888340379810101</v>
+      </c>
+      <c r="W13" s="4">
+        <v>4.1172537731134502E-2</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0.54981526636681499</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0.56149474962518897</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0.70100459070464805</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>0.724393312843577</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>8.5312854072963407E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -18853,47 +18827,47 @@
       <c r="O14" s="7">
         <v>0.27500000000000002</v>
       </c>
-      <c r="P14" s="7">
-        <v>0.72368816591703999</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0.71764117941029404</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0.70855051274362901</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0.70839964117941601</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0.78080127436282198</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0.72456862768615604</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0.72482606396801497</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0.73643178560719502</v>
-      </c>
-      <c r="X14" s="7">
-        <v>0.72485895452274396</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>0.72479388905547104</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>0.72290950174912405</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>0.72292066616692496</v>
-      </c>
-      <c r="AB14" s="7">
-        <v>0.72452393803098303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P14" s="4">
+        <v>0.25646856171913901</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.37060508045976998</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.48029214242878698</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0.59415294952523701</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0.15111962168915599</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0.37221996751624098</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0.395180433283359</v>
+      </c>
+      <c r="W14" s="4">
+        <v>3.7618459770114999E-2</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0.53152286306846597</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0.54281074562718501</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0.677614138430781</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0.70031631384307902</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>8.2435840579709901E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -18923,47 +18897,47 @@
       <c r="O15" s="8">
         <v>0.3</v>
       </c>
-      <c r="P15" s="8">
-        <v>0.69681522088955505</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>0.69415604697651101</v>
-      </c>
-      <c r="R15" s="8">
-        <v>0.68870085457271102</v>
-      </c>
-      <c r="S15" s="8">
-        <v>0.68721986406796598</v>
-      </c>
-      <c r="T15" s="8">
-        <v>0.74016324737631101</v>
-      </c>
-      <c r="U15" s="8">
-        <v>0.70039102098950501</v>
-      </c>
-      <c r="V15" s="8">
-        <v>0.70011828385806896</v>
-      </c>
-      <c r="W15" s="8">
-        <v>0.70031522538730595</v>
-      </c>
-      <c r="X15" s="8">
-        <v>0.69992596251873995</v>
-      </c>
-      <c r="Y15" s="8">
-        <v>0.70026086156921397</v>
-      </c>
-      <c r="Z15" s="8">
-        <v>0.69829812993503204</v>
-      </c>
-      <c r="AA15" s="8">
-        <v>0.69841558320840302</v>
-      </c>
-      <c r="AB15" s="8">
-        <v>0.70004653573213305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P15" s="4">
+        <v>0.246628295352324</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.35854012043978101</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.46627176261869102</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0.576360250874564</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0.143265426786607</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0.35937227236381902</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0.381552560719641</v>
+      </c>
+      <c r="W15" s="4">
+        <v>3.5726638680659603E-2</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0.51335135332333803</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0.52429393703148397</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0.65473593853073098</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0.67652682558720201</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>7.9648990504747302E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -19005,7 +18979,7 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -19036,59 +19010,46 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P17" s="7">
-        <f>1-P4</f>
         <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" ref="Q17:AB17" si="0">1-Q4</f>
         <v>7.1839080459801252E-4</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" si="0"/>
         <v>4.6120614692769513E-3</v>
       </c>
       <c r="S17" s="7">
-        <f t="shared" si="0"/>
         <v>1.1763375312346946E-2</v>
       </c>
       <c r="T17" s="7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U17" s="7">
-        <f t="shared" si="0"/>
         <v>2.6706646679697243E-6</v>
       </c>
       <c r="V17" s="7">
-        <f t="shared" si="0"/>
         <v>1.2943028485978836E-5</v>
       </c>
       <c r="W17" s="7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X17" s="7">
-        <f t="shared" si="0"/>
         <v>4.2393353323399996E-3</v>
       </c>
       <c r="Y17" s="7">
-        <f t="shared" si="0"/>
         <v>7.2777351324390116E-3</v>
       </c>
       <c r="Z17" s="7">
-        <f t="shared" si="0"/>
         <v>2.8432839080465011E-2</v>
       </c>
       <c r="AA17" s="7">
-        <f t="shared" si="0"/>
         <v>2.8734931034504974E-2</v>
       </c>
       <c r="AB17" s="7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -19119,59 +19080,46 @@
         <v>0.05</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" ref="P18:AB28" si="1">1-P5</f>
         <v>4.5432283858104494E-4</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="1"/>
         <v>9.5077461269359453E-3</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="1"/>
         <v>2.8197822088977031E-2</v>
       </c>
       <c r="S18" s="7">
-        <f t="shared" si="1"/>
         <v>4.210956496750895E-2</v>
       </c>
       <c r="T18" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U18" s="7">
-        <f t="shared" si="1"/>
         <v>3.8000374812600102E-3</v>
       </c>
       <c r="V18" s="7">
-        <f t="shared" si="1"/>
         <v>1.3920710144928017E-2</v>
       </c>
       <c r="W18" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X18" s="7">
-        <f t="shared" si="1"/>
         <v>4.5127466766615054E-2</v>
       </c>
       <c r="Y18" s="7">
-        <f t="shared" si="1"/>
         <v>4.7778720639676031E-2</v>
       </c>
       <c r="Z18" s="7">
-        <f t="shared" si="1"/>
         <v>5.3604963518236959E-2</v>
       </c>
       <c r="AA18" s="7">
-        <f t="shared" si="1"/>
         <v>5.3724932533740999E-2</v>
       </c>
       <c r="AB18" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -19202,59 +19150,46 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" si="1"/>
         <v>5.0838670664650198E-3</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="1"/>
         <v>3.3645677161416976E-2</v>
       </c>
       <c r="R19" s="7">
-        <f t="shared" si="1"/>
         <v>6.3951389305358042E-2</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" si="1"/>
         <v>7.7720468515736996E-2</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" si="1"/>
         <v>2.6653323338299284E-4</v>
       </c>
       <c r="U19" s="7">
-        <f t="shared" si="1"/>
         <v>4.8190426286859989E-2</v>
       </c>
       <c r="V19" s="7">
-        <f t="shared" si="1"/>
         <v>6.5905193903049053E-2</v>
       </c>
       <c r="W19" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X19" s="7">
-        <f t="shared" si="1"/>
         <v>7.5303289355325043E-2</v>
       </c>
       <c r="Y19" s="7">
-        <f t="shared" si="1"/>
         <v>7.5200088455780967E-2</v>
       </c>
       <c r="Z19" s="7">
-        <f t="shared" si="1"/>
         <v>7.8690108945526971E-2</v>
       </c>
       <c r="AA19" s="7">
-        <f t="shared" si="1"/>
         <v>7.8645139930037966E-2</v>
       </c>
       <c r="AB19" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -19285,59 +19220,46 @@
         <v>0.1</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="1"/>
         <v>1.6482773113438043E-2</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="1"/>
         <v>6.2078335832082998E-2</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="1"/>
         <v>9.7189473263376014E-2</v>
       </c>
       <c r="S20" s="7">
-        <f t="shared" si="1"/>
         <v>0.10771351724135703</v>
       </c>
       <c r="T20" s="7">
-        <f t="shared" si="1"/>
         <v>1.9073823088470165E-3</v>
       </c>
       <c r="U20" s="7">
-        <f t="shared" si="1"/>
         <v>9.6245006496754049E-2</v>
       </c>
       <c r="V20" s="7">
-        <f t="shared" si="1"/>
         <v>9.9382692153923036E-2</v>
       </c>
       <c r="W20" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X20" s="7">
-        <f t="shared" si="1"/>
         <v>0.10008845727136495</v>
       </c>
       <c r="Y20" s="7">
-        <f t="shared" si="1"/>
         <v>9.9975654672662007E-2</v>
       </c>
       <c r="Z20" s="7">
-        <f t="shared" si="1"/>
         <v>0.103143201399298</v>
       </c>
       <c r="AA20" s="7">
-        <f t="shared" si="1"/>
         <v>0.10306809395302896</v>
       </c>
       <c r="AB20" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -19368,59 +19290,46 @@
         <v>0.125</v>
       </c>
       <c r="P21" s="7">
-        <f t="shared" si="1"/>
         <v>4.1910935032479002E-2</v>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" si="1"/>
         <v>0.10162418790604799</v>
       </c>
       <c r="R21" s="7">
-        <f t="shared" si="1"/>
         <v>0.13291450374813296</v>
       </c>
       <c r="S21" s="7">
-        <f t="shared" si="1"/>
         <v>0.13963988980509001</v>
       </c>
       <c r="T21" s="7">
-        <f t="shared" si="1"/>
         <v>7.4212873563269666E-3</v>
       </c>
       <c r="U21" s="7">
-        <f t="shared" si="1"/>
         <v>0.12486618240879399</v>
       </c>
       <c r="V21" s="7">
-        <f t="shared" si="1"/>
         <v>0.12520358170914403</v>
       </c>
       <c r="W21" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X21" s="7">
-        <f t="shared" si="1"/>
         <v>0.12520608245876896</v>
       </c>
       <c r="Y21" s="7">
-        <f t="shared" si="1"/>
         <v>0.12509765367316705</v>
       </c>
       <c r="Z21" s="7">
-        <f t="shared" si="1"/>
         <v>0.12795777461269797</v>
       </c>
       <c r="AA21" s="7">
-        <f t="shared" si="1"/>
         <v>0.12800104597701201</v>
       </c>
       <c r="AB21" s="7">
-        <f t="shared" si="1"/>
         <v>1.9300599700100562E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -19451,59 +19360,46 @@
         <v>0.15</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="1"/>
         <v>7.7506636681660024E-2</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="1"/>
         <v>0.139046101949026</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="1"/>
         <v>0.16566003248375105</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" si="1"/>
         <v>0.16848704047975205</v>
       </c>
       <c r="T22" s="7">
-        <f t="shared" si="1"/>
         <v>2.0906222888568027E-2</v>
       </c>
       <c r="U22" s="7">
-        <f t="shared" si="1"/>
         <v>0.15006160169915395</v>
       </c>
       <c r="V22" s="7">
-        <f t="shared" si="1"/>
         <v>0.150399627686155</v>
       </c>
       <c r="W22" s="7">
-        <f t="shared" si="1"/>
         <v>1.5376811594025597E-5</v>
       </c>
       <c r="X22" s="7">
-        <f t="shared" si="1"/>
         <v>0.15016557321339696</v>
       </c>
       <c r="Y22" s="7">
-        <f t="shared" si="1"/>
         <v>0.15013278410795206</v>
       </c>
       <c r="Z22" s="7">
-        <f t="shared" si="1"/>
         <v>0.15281331284357802</v>
       </c>
       <c r="AA22" s="7">
-        <f t="shared" si="1"/>
         <v>0.15296925237381498</v>
       </c>
       <c r="AB22" s="7">
-        <f t="shared" si="1"/>
         <v>9.5124677661170276E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -19534,59 +19430,46 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="1"/>
         <v>0.12025354872563798</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="1"/>
         <v>0.17281359320339995</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="1"/>
         <v>0.19305345327336298</v>
       </c>
       <c r="S23" s="7">
-        <f t="shared" si="1"/>
         <v>0.19575698553098497</v>
       </c>
       <c r="T23" s="7">
-        <f t="shared" si="1"/>
         <v>4.7318006996516004E-2</v>
       </c>
       <c r="U23" s="7">
-        <f t="shared" si="1"/>
         <v>0.17530357271363906</v>
       </c>
       <c r="V23" s="7">
-        <f t="shared" si="1"/>
         <v>0.17521743578210502</v>
       </c>
       <c r="W23" s="7">
-        <f t="shared" si="1"/>
         <v>1.6338055972000554E-3</v>
       </c>
       <c r="X23" s="7">
-        <f t="shared" si="1"/>
         <v>0.17523484757621499</v>
       </c>
       <c r="Y23" s="7">
-        <f t="shared" si="1"/>
         <v>0.17527257321338996</v>
       </c>
       <c r="Z23" s="7">
-        <f t="shared" si="1"/>
         <v>0.17775983408296103</v>
       </c>
       <c r="AA23" s="7">
-        <f t="shared" si="1"/>
         <v>0.17789350024988404</v>
       </c>
       <c r="AB23" s="7">
-        <f t="shared" si="1"/>
         <v>6.3104666666665032E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -19617,59 +19500,46 @@
         <v>0.2</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="1"/>
         <v>0.16000180809594999</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="1"/>
         <v>0.19987193903048595</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" si="1"/>
         <v>0.21643943878060701</v>
       </c>
       <c r="S24" s="7">
-        <f t="shared" si="1"/>
         <v>0.21861952073963997</v>
       </c>
       <c r="T24" s="7">
-        <f t="shared" si="1"/>
         <v>7.6170254872572007E-2</v>
       </c>
       <c r="U24" s="7">
-        <f t="shared" si="1"/>
         <v>0.19999504297850901</v>
       </c>
       <c r="V24" s="7">
-        <f t="shared" si="1"/>
         <v>0.19972604397800697</v>
       </c>
       <c r="W24" s="7">
-        <f t="shared" si="1"/>
         <v>1.9409562218881016E-2</v>
       </c>
       <c r="X24" s="7">
-        <f t="shared" si="1"/>
         <v>0.20000989105447198</v>
       </c>
       <c r="Y24" s="7">
-        <f t="shared" si="1"/>
         <v>0.19994321639180401</v>
       </c>
       <c r="Z24" s="7">
-        <f t="shared" si="1"/>
         <v>0.20233481909045303</v>
       </c>
       <c r="AA24" s="7">
-        <f t="shared" si="1"/>
         <v>0.20228752023988605</v>
       </c>
       <c r="AB24" s="7">
-        <f t="shared" si="1"/>
         <v>0.152265247876051</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -19700,59 +19570,46 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" si="1"/>
         <v>0.20265776311843897</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="1"/>
         <v>0.22916979010494798</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="1"/>
         <v>0.24044406846576405</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" si="1"/>
         <v>0.24264023538231305</v>
       </c>
       <c r="T25" s="7">
-        <f t="shared" si="1"/>
         <v>0.11894054022988598</v>
       </c>
       <c r="U25" s="7">
-        <f t="shared" si="1"/>
         <v>0.22492455872063999</v>
       </c>
       <c r="V25" s="7">
-        <f t="shared" si="1"/>
         <v>0.22473187556221597</v>
       </c>
       <c r="W25" s="7">
-        <f t="shared" si="1"/>
         <v>9.2292310844572012E-2</v>
       </c>
       <c r="X25" s="7">
-        <f t="shared" si="1"/>
         <v>0.22496318540729998</v>
       </c>
       <c r="Y25" s="7">
-        <f t="shared" si="1"/>
         <v>0.22493568215891802</v>
       </c>
       <c r="Z25" s="7">
-        <f t="shared" si="1"/>
         <v>0.22722717141429305</v>
       </c>
       <c r="AA25" s="7">
-        <f t="shared" si="1"/>
         <v>0.227269583708129</v>
       </c>
       <c r="AB25" s="7">
-        <f t="shared" si="1"/>
         <v>0.21514586056971396</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -19783,59 +19640,46 @@
         <v>0.25</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="1"/>
         <v>0.242860408795601</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" si="1"/>
         <v>0.25661544227886302</v>
       </c>
       <c r="R26" s="7">
-        <f t="shared" si="1"/>
         <v>0.265988428285862</v>
       </c>
       <c r="S26" s="7">
-        <f t="shared" si="1"/>
         <v>0.26679543278360096</v>
       </c>
       <c r="T26" s="7">
-        <f t="shared" si="1"/>
         <v>0.16879060069964602</v>
       </c>
       <c r="U26" s="7">
-        <f t="shared" si="1"/>
         <v>0.25016002848575802</v>
       </c>
       <c r="V26" s="7">
-        <f t="shared" si="1"/>
         <v>0.25026119490254795</v>
       </c>
       <c r="W26" s="7">
-        <f t="shared" si="1"/>
         <v>0.19369161169414895</v>
       </c>
       <c r="X26" s="7">
-        <f t="shared" si="1"/>
         <v>0.25048331384307898</v>
       </c>
       <c r="Y26" s="7">
-        <f t="shared" si="1"/>
         <v>0.25018851724137803</v>
       </c>
       <c r="Z26" s="7">
-        <f t="shared" si="1"/>
         <v>0.25213249025486895</v>
       </c>
       <c r="AA26" s="7">
-        <f t="shared" si="1"/>
         <v>0.25220040979509195</v>
       </c>
       <c r="AB26" s="7">
-        <f t="shared" si="1"/>
         <v>0.25046441629185501</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -19866,59 +19710,46 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="P27" s="7">
-        <f t="shared" si="1"/>
         <v>0.27631183408296001</v>
       </c>
       <c r="Q27" s="7">
-        <f t="shared" si="1"/>
         <v>0.28235882058970596</v>
       </c>
       <c r="R27" s="7">
-        <f t="shared" si="1"/>
         <v>0.29144948725637099</v>
       </c>
       <c r="S27" s="7">
-        <f t="shared" si="1"/>
         <v>0.29160035882058399</v>
       </c>
       <c r="T27" s="7">
-        <f t="shared" si="1"/>
         <v>0.21919872563717802</v>
       </c>
       <c r="U27" s="7">
-        <f t="shared" si="1"/>
         <v>0.27543137231384396</v>
       </c>
       <c r="V27" s="7">
-        <f t="shared" si="1"/>
         <v>0.27517393603198503</v>
       </c>
       <c r="W27" s="7">
-        <f t="shared" si="1"/>
         <v>0.26356821439280498</v>
       </c>
       <c r="X27" s="7">
-        <f t="shared" si="1"/>
         <v>0.27514104547725604</v>
       </c>
       <c r="Y27" s="7">
-        <f t="shared" si="1"/>
         <v>0.27520611094452896</v>
       </c>
       <c r="Z27" s="7">
-        <f t="shared" si="1"/>
         <v>0.27709049825087595</v>
       </c>
       <c r="AA27" s="7">
-        <f t="shared" si="1"/>
         <v>0.27707933383307504</v>
       </c>
       <c r="AB27" s="7">
-        <f t="shared" si="1"/>
         <v>0.27547606196901697</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -19949,59 +19780,46 @@
         <v>0.3</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" si="1"/>
         <v>0.30318477911044495</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" si="1"/>
         <v>0.30584395302348899</v>
       </c>
       <c r="R28" s="7">
-        <f t="shared" si="1"/>
         <v>0.31129914542728898</v>
       </c>
       <c r="S28" s="7">
-        <f t="shared" si="1"/>
         <v>0.31278013593203402</v>
       </c>
       <c r="T28" s="7">
-        <f t="shared" si="1"/>
         <v>0.25983675262368899</v>
       </c>
       <c r="U28" s="7">
-        <f t="shared" si="1"/>
         <v>0.29960897901049499</v>
       </c>
       <c r="V28" s="7">
-        <f t="shared" si="1"/>
         <v>0.29988171614193104</v>
       </c>
       <c r="W28" s="7">
-        <f t="shared" si="1"/>
         <v>0.29968477461269405</v>
       </c>
       <c r="X28" s="7">
-        <f t="shared" si="1"/>
         <v>0.30007403748126005</v>
       </c>
       <c r="Y28" s="7">
-        <f t="shared" si="1"/>
         <v>0.29973913843078603</v>
       </c>
       <c r="Z28" s="7">
-        <f t="shared" si="1"/>
         <v>0.30170187006496796</v>
       </c>
       <c r="AA28" s="7">
-        <f t="shared" si="1"/>
         <v>0.30158441679159698</v>
       </c>
       <c r="AB28" s="7">
-        <f t="shared" si="1"/>
         <v>0.29995346426786695</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -20029,7 +19847,7 @@
       </c>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -20057,7 +19875,7 @@
       </c>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5</v>
       </c>
@@ -20085,7 +19903,7 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -20113,7 +19931,7 @@
       </c>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -20141,7 +19959,7 @@
       </c>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5</v>
       </c>
@@ -20169,7 +19987,7 @@
       </c>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5</v>
       </c>
@@ -20197,7 +20015,7 @@
       </c>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -20225,7 +20043,7 @@
       </c>
       <c r="I36"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5</v>
       </c>
@@ -20253,7 +20071,7 @@
       </c>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -20281,7 +20099,7 @@
       </c>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -20309,7 +20127,7 @@
       </c>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -20337,7 +20155,7 @@
       </c>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -20365,7 +20183,7 @@
       </c>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -20393,7 +20211,7 @@
       </c>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -20421,7 +20239,7 @@
       </c>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -20449,7 +20267,7 @@
       </c>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -20477,7 +20295,7 @@
       </c>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -20505,7 +20323,7 @@
       </c>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -20533,7 +20351,7 @@
       </c>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -20561,7 +20379,7 @@
       </c>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -20589,7 +20407,7 @@
       </c>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5</v>
       </c>
@@ -20621,7 +20439,7 @@
       <c r="Q50" s="12"/>
       <c r="R50" s="13"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
@@ -20653,7 +20471,7 @@
       <c r="Q51" s="15"/>
       <c r="R51" s="16"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
@@ -20685,7 +20503,7 @@
       <c r="Q52" s="12"/>
       <c r="R52" s="13"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5</v>
       </c>
@@ -20717,7 +20535,7 @@
       <c r="Q53" s="15"/>
       <c r="R53" s="16"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5</v>
       </c>
@@ -20749,7 +20567,7 @@
       <c r="Q54" s="12"/>
       <c r="R54" s="13"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5</v>
       </c>
@@ -20781,7 +20599,7 @@
       <c r="Q55" s="15"/>
       <c r="R55" s="16"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5</v>
       </c>
@@ -20813,7 +20631,7 @@
       <c r="Q56" s="12"/>
       <c r="R56" s="13"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
@@ -20845,7 +20663,7 @@
       <c r="Q57" s="15"/>
       <c r="R57" s="16"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5</v>
       </c>
@@ -20877,7 +20695,7 @@
       <c r="Q58" s="12"/>
       <c r="R58" s="13"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5</v>
       </c>
@@ -20909,7 +20727,7 @@
       <c r="Q59" s="15"/>
       <c r="R59" s="16"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5</v>
       </c>
@@ -20941,7 +20759,7 @@
       <c r="Q60" s="12"/>
       <c r="R60" s="13"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5</v>
       </c>
@@ -20973,7 +20791,7 @@
       <c r="Q61" s="15"/>
       <c r="R61" s="16"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>8</v>
       </c>
@@ -21001,7 +20819,7 @@
       </c>
       <c r="I62"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>8</v>
       </c>
@@ -21029,7 +20847,7 @@
       </c>
       <c r="I63"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>8</v>
       </c>
@@ -21057,7 +20875,7 @@
       </c>
       <c r="I64"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>8</v>
       </c>
@@ -21085,7 +20903,7 @@
       </c>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>8</v>
       </c>
@@ -21113,7 +20931,7 @@
       </c>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>8</v>
       </c>
@@ -21141,7 +20959,7 @@
       </c>
       <c r="I67"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>8</v>
       </c>
@@ -21169,7 +20987,7 @@
       </c>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>8</v>
       </c>
@@ -21197,7 +21015,7 @@
       </c>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>8</v>
       </c>
@@ -21225,7 +21043,7 @@
       </c>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>8</v>
       </c>
@@ -21253,7 +21071,7 @@
       </c>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>8</v>
       </c>
@@ -21281,7 +21099,7 @@
       </c>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>8</v>
       </c>
@@ -21309,7 +21127,7 @@
       </c>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>8</v>
       </c>
@@ -21337,7 +21155,7 @@
       </c>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>8</v>
       </c>
@@ -21365,7 +21183,7 @@
       </c>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>8</v>
       </c>
@@ -21393,7 +21211,7 @@
       </c>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>8</v>
       </c>
@@ -21421,7 +21239,7 @@
       </c>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>8</v>
       </c>
@@ -21449,7 +21267,7 @@
       </c>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8</v>
       </c>
@@ -21477,7 +21295,7 @@
       </c>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>8</v>
       </c>
@@ -21505,7 +21323,7 @@
       </c>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>8</v>
       </c>
@@ -21533,7 +21351,7 @@
       </c>
       <c r="I81"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8</v>
       </c>
@@ -21561,7 +21379,7 @@
       </c>
       <c r="I82"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8</v>
       </c>
@@ -21589,7 +21407,7 @@
       </c>
       <c r="I83"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8</v>
       </c>
@@ -21617,7 +21435,7 @@
       </c>
       <c r="I84"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8</v>
       </c>
@@ -21645,7 +21463,7 @@
       </c>
       <c r="I85"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8</v>
       </c>
@@ -21673,7 +21491,7 @@
       </c>
       <c r="I86"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8</v>
       </c>
@@ -21701,7 +21519,7 @@
       </c>
       <c r="I87"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>8</v>
       </c>
@@ -21729,7 +21547,7 @@
       </c>
       <c r="I88"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8</v>
       </c>
@@ -21757,7 +21575,7 @@
       </c>
       <c r="I89"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8</v>
       </c>
@@ -21785,7 +21603,7 @@
       </c>
       <c r="I90"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>8</v>
       </c>
@@ -21813,7 +21631,7 @@
       </c>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>8</v>
       </c>
@@ -21841,7 +21659,7 @@
       </c>
       <c r="I92"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>8</v>
       </c>
@@ -21869,7 +21687,7 @@
       </c>
       <c r="I93"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>8</v>
       </c>
@@ -21897,7 +21715,7 @@
       </c>
       <c r="I94"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>8</v>
       </c>
@@ -21925,7 +21743,7 @@
       </c>
       <c r="I95"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>8</v>
       </c>
@@ -21953,7 +21771,7 @@
       </c>
       <c r="I96"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>8</v>
       </c>
@@ -21981,7 +21799,7 @@
       </c>
       <c r="I97"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>8</v>
       </c>
@@ -22009,7 +21827,7 @@
       </c>
       <c r="I98"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>8</v>
       </c>
@@ -22037,7 +21855,7 @@
       </c>
       <c r="I99"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>8</v>
       </c>
@@ -22065,7 +21883,7 @@
       </c>
       <c r="I100"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>8</v>
       </c>
@@ -22093,7 +21911,7 @@
       </c>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>8</v>
       </c>
@@ -22121,7 +21939,7 @@
       </c>
       <c r="I102"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>8</v>
       </c>
@@ -22149,7 +21967,7 @@
       </c>
       <c r="I103"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>8</v>
       </c>
@@ -22177,7 +21995,7 @@
       </c>
       <c r="I104"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>8</v>
       </c>
@@ -22205,7 +22023,7 @@
       </c>
       <c r="I105"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>8</v>
       </c>
@@ -22233,7 +22051,7 @@
       </c>
       <c r="I106"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>8</v>
       </c>
@@ -22261,7 +22079,7 @@
       </c>
       <c r="I107"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>8</v>
       </c>
@@ -22289,7 +22107,7 @@
       </c>
       <c r="I108"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>8</v>
       </c>
@@ -22317,7 +22135,7 @@
       </c>
       <c r="I109"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>8</v>
       </c>
@@ -22345,7 +22163,7 @@
       </c>
       <c r="I110"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>8</v>
       </c>
@@ -22373,7 +22191,7 @@
       </c>
       <c r="I111"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>8</v>
       </c>
@@ -22401,7 +22219,7 @@
       </c>
       <c r="I112"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>8</v>
       </c>
@@ -22429,7 +22247,7 @@
       </c>
       <c r="I113"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>8</v>
       </c>
@@ -22457,7 +22275,7 @@
       </c>
       <c r="I114"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>8</v>
       </c>
@@ -22485,7 +22303,7 @@
       </c>
       <c r="I115"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>8</v>
       </c>
@@ -22513,7 +22331,7 @@
       </c>
       <c r="I116"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>8</v>
       </c>
@@ -22541,7 +22359,7 @@
       </c>
       <c r="I117"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>8</v>
       </c>
@@ -22569,7 +22387,7 @@
       </c>
       <c r="I118"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>8</v>
       </c>
@@ -22597,7 +22415,7 @@
       </c>
       <c r="I119"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>8</v>
       </c>
@@ -22625,7 +22443,7 @@
       </c>
       <c r="I120"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>8</v>
       </c>
@@ -22653,7 +22471,7 @@
       </c>
       <c r="I121"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>8</v>
       </c>
@@ -22681,7 +22499,7 @@
       </c>
       <c r="I122"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>8</v>
       </c>
@@ -22709,7 +22527,7 @@
       </c>
       <c r="I123"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>8</v>
       </c>
@@ -22737,7 +22555,7 @@
       </c>
       <c r="I124"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>8</v>
       </c>
@@ -22765,7 +22583,7 @@
       </c>
       <c r="I125"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>8</v>
       </c>
@@ -22793,7 +22611,7 @@
       </c>
       <c r="I126"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>8</v>
       </c>
@@ -22821,7 +22639,7 @@
       </c>
       <c r="I127"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>8</v>
       </c>
@@ -22849,7 +22667,7 @@
       </c>
       <c r="I128"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>8</v>
       </c>
@@ -22877,7 +22695,7 @@
       </c>
       <c r="I129"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>8</v>
       </c>
@@ -22905,7 +22723,7 @@
       </c>
       <c r="I130"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>8</v>
       </c>
@@ -22933,7 +22751,7 @@
       </c>
       <c r="I131"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>8</v>
       </c>
@@ -22961,7 +22779,7 @@
       </c>
       <c r="I132"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>8</v>
       </c>
@@ -22989,7 +22807,7 @@
       </c>
       <c r="I133"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>8</v>
       </c>
@@ -23017,7 +22835,7 @@
       </c>
       <c r="I134"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>8</v>
       </c>
@@ -23045,7 +22863,7 @@
       </c>
       <c r="I135"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>8</v>
       </c>
@@ -23073,7 +22891,7 @@
       </c>
       <c r="I136"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>8</v>
       </c>
@@ -23101,7 +22919,7 @@
       </c>
       <c r="I137"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>8</v>
       </c>
@@ -23129,7 +22947,7 @@
       </c>
       <c r="I138"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>8</v>
       </c>
@@ -23157,7 +22975,7 @@
       </c>
       <c r="I139"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>8</v>
       </c>
@@ -23185,7 +23003,7 @@
       </c>
       <c r="I140"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>8</v>
       </c>
@@ -23213,7 +23031,7 @@
       </c>
       <c r="I141"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>8</v>
       </c>
@@ -23241,7 +23059,7 @@
       </c>
       <c r="I142"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>8</v>
       </c>
@@ -23269,7 +23087,7 @@
       </c>
       <c r="I143"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>8</v>
       </c>
@@ -23297,7 +23115,7 @@
       </c>
       <c r="I144"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>8</v>
       </c>
@@ -23325,7 +23143,7 @@
       </c>
       <c r="I145"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>8</v>
       </c>
@@ -23353,7 +23171,7 @@
       </c>
       <c r="I146"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>8</v>
       </c>
@@ -23381,7 +23199,7 @@
       </c>
       <c r="I147"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>8</v>
       </c>
@@ -23409,7 +23227,7 @@
       </c>
       <c r="I148"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>8</v>
       </c>
@@ -23437,7 +23255,7 @@
       </c>
       <c r="I149"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>8</v>
       </c>
@@ -23465,7 +23283,7 @@
       </c>
       <c r="I150"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>8</v>
       </c>
@@ -23493,7 +23311,7 @@
       </c>
       <c r="I151"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>8</v>
       </c>
@@ -23521,7 +23339,7 @@
       </c>
       <c r="I152"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>8</v>
       </c>
@@ -23549,7 +23367,7 @@
       </c>
       <c r="I153"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>8</v>
       </c>
@@ -23577,7 +23395,7 @@
       </c>
       <c r="I154"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>8</v>
       </c>
@@ -23605,7 +23423,7 @@
       </c>
       <c r="I155"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>8</v>
       </c>
@@ -23633,7 +23451,7 @@
       </c>
       <c r="I156"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>8</v>
       </c>
@@ -23661,13 +23479,13 @@
       </c>
       <c r="I157"/>
     </row>
-    <row r="162" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="14:17" x14ac:dyDescent="0.3">
       <c r="O162" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="163" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N163" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -23678,128 +23496,128 @@
       <c r="P163" s="10"/>
       <c r="Q163" s="10"/>
     </row>
-    <row r="164" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N164" s="14">
         <v>0.05</v>
       </c>
       <c r="O164" s="10">
-        <f t="shared" ref="O164:O174" si="2">P51</f>
+        <f t="shared" ref="O164:O174" si="0">P51</f>
         <v>0</v>
       </c>
       <c r="P164" s="10"/>
       <c r="Q164" s="10"/>
     </row>
-    <row r="165" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N165" s="11">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O165" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P165" s="10"/>
       <c r="Q165" s="10"/>
     </row>
-    <row r="166" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N166" s="14">
         <v>0.1</v>
       </c>
       <c r="O166" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P166" s="10"/>
       <c r="Q166" s="10"/>
     </row>
-    <row r="167" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N167" s="11">
         <v>0.125</v>
       </c>
       <c r="O167" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P167" s="10"/>
       <c r="Q167" s="10"/>
     </row>
-    <row r="168" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N168" s="14">
         <v>0.15</v>
       </c>
       <c r="O168" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P168" s="10"/>
       <c r="Q168" s="10"/>
     </row>
-    <row r="169" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N169" s="11">
         <v>0.17499999999999999</v>
       </c>
       <c r="O169" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P169" s="10"/>
       <c r="Q169" s="10"/>
     </row>
-    <row r="170" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N170" s="14">
         <v>0.2</v>
       </c>
       <c r="O170" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P170" s="10"/>
       <c r="Q170" s="10"/>
     </row>
-    <row r="171" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N171" s="11">
         <v>0.22500000000000001</v>
       </c>
       <c r="O171" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P171" s="10"/>
       <c r="Q171" s="10"/>
     </row>
-    <row r="172" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N172" s="14">
         <v>0.25</v>
       </c>
       <c r="O172" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P172" s="10"/>
       <c r="Q172" s="10"/>
     </row>
-    <row r="173" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N173" s="11">
         <v>0.27500000000000002</v>
       </c>
       <c r="O173" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P173" s="10"/>
       <c r="Q173" s="10"/>
     </row>
-    <row r="174" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N174" s="14">
         <v>0.3</v>
       </c>
       <c r="O174" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P174" s="10"/>
       <c r="Q174" s="10"/>
     </row>
-    <row r="177" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N177" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -23808,161 +23626,161 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N178" s="14">
         <v>0.05</v>
       </c>
       <c r="O178" s="10">
-        <f t="shared" ref="O178:O188" si="3">R51</f>
+        <f t="shared" ref="O178:O188" si="1">R51</f>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N179" s="11">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O179" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N180" s="14">
         <v>0.1</v>
       </c>
       <c r="O180" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N181" s="11">
         <v>0.125</v>
       </c>
       <c r="O181" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N182" s="14">
         <v>0.15</v>
       </c>
       <c r="O182" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N183" s="11">
         <v>0.17499999999999999</v>
       </c>
       <c r="O183" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N184" s="14">
         <v>0.2</v>
       </c>
       <c r="O184" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N185" s="11">
         <v>0.22500000000000001</v>
       </c>
       <c r="O185" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N186" s="14">
         <v>0.25</v>
       </c>
       <c r="O186" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N187" s="11">
         <v>0.27500000000000002</v>
       </c>
       <c r="O187" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N188" s="14">
         <v>0.3</v>
       </c>
       <c r="O188" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N191" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N192" s="14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="193" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N193" s="11">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="194" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N194" s="14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="195" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N195" s="11">
         <v>0.125</v>
       </c>
     </row>
-    <row r="196" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N196" s="14">
         <v>0.15</v>
       </c>
     </row>
-    <row r="197" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N197" s="11">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="198" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N198" s="14">
         <v>0.2</v>
       </c>
     </row>
-    <row r="199" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N199" s="11">
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="200" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N200" s="14">
         <v>0.25</v>
       </c>
     </row>
-    <row r="201" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N201" s="11">
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="202" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N202" s="14">
         <v>0.3</v>
       </c>
